--- a/instance/zyjk/BI/config/bi.xlsx
+++ b/instance/zyjk/BI/config/bi.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
-          <t>2020-05-21,2020-05-21</t>
+          <t>2020-03-22,2020-03-22</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="K3" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21,2020-05-21</t>
+          <t>2020-03-22,2020-03-22</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="K4" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="K5" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="K6" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="K7" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="K8" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="K9" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K10" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="K11" s="14" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>2020-05-21，2.1.4，client(7.43)，server(10.00)</t>
+          <t>2020-05-25，2.1.4，client(7.43)，server(10.00)</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>2020-05-21，2.4.6，client(38.93)，server(10.00)</t>
+          <t>2020-05-25，2.4.6，client(38.93)，server(10.00)</t>
         </is>
       </c>
       <c r="H58" s="1" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>2020-05-21，2.4.7，client(100)，server(13.33)</t>
+          <t>2020-05-25，2.4.7，client(100)，server(13.33)</t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>2020-05-21，2.4.7，client(48.01% ↑)，server(1010.35)</t>
+          <t>2020-05-25，2.4.7，client(48.01% ↑)，server(1010.35)</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>2020-05-21，3.1.5，client({'呼吸内科': '4', '妇产科': '4', '消化内科': '4', '内分泌科': '2', '急诊科': '2', '肿瘤科': '1', '神经内科': '1', '骨科': '0', '急诊内科': '0', '心内科': '0'})，server({'心内科': '17', '外科': '11', '神经内科': '11', '消化内科': '9', '内分泌科': '9', '呼吸内科': '9', '肿瘤科': '5', '妇产科': '5', '急诊科': '4', '骨科': '4'})</t>
+          <t>2020-05-25，3.1.5，client({'呼吸内科': '4', '妇产科': '4', '消化内科': '4', '急诊科': '2', '内分泌科': '2', '神经内科': '1', '肿瘤科': '1', '外科': '0', '骨科': '0', '急诊内科': '0'})，server({'心内科': '17', '神经内科': '11', '外科': '11', '呼吸内科': '9', '消化内科': '9', '内分泌科': '9', '妇产科': '5', '肿瘤科': '5', '急诊科': '4', '骨科': '4'})</t>
         </is>
       </c>
       <c r="H68" s="1" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>2020-05-21，5.1.7，client(None)，server({})</t>
+          <t>2020-05-25，5.1.7，client(None)，server({})</t>
         </is>
       </c>
       <c r="H108" s="1" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>2020-05-21，5.1.8，client(None)，server({})</t>
+          <t>2020-05-25，5.1.8，client(None)，server({})</t>
         </is>
       </c>
       <c r="H109" s="1" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>2020-05-21，5.1.9，client(None)，server({})</t>
+          <t>2020-05-25，5.1.9，client(None)，server({})</t>
         </is>
       </c>
       <c r="H110" s="1" t="inlineStr">

--- a/instance/zyjk/BI/config/bi.xlsx
+++ b/instance/zyjk/BI/config/bi.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
-          <t>2020-03-22,2020-03-22</t>
+          <t>2020-06-01,2020-06-01</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="K3" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22,2020-03-22</t>
+          <t>2020-06-01,2020-06-01</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="K4" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="K5" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="K6" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="K7" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="K8" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="K9" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K10" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="K11" s="14" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>2020-05-25，2.1.4，client(7.43)，server(10.00)</t>
+          <t>2020-06-01，2.1.4，client(7.43)，server(10.00)</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>2020-05-25，2.4.6，client(38.93)，server(10.00)</t>
+          <t>2020-06-01，2.4.6，client(38.93)，server(10.00)</t>
         </is>
       </c>
       <c r="H58" s="1" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>2020-05-25，2.4.7，client(100)，server(13.33)</t>
+          <t>2020-06-01，2.4.7，client(100)，server(13.33)</t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>2020-05-25，2.4.7，client(48.01% ↑)，server(1010.35)</t>
+          <t>2020-06-01，2.4.7，client(48.01% ↑)，server(1010.35)</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>2020-05-25，3.1.5，client({'呼吸内科': '4', '妇产科': '4', '消化内科': '4', '急诊科': '2', '内分泌科': '2', '神经内科': '1', '肿瘤科': '1', '外科': '0', '骨科': '0', '急诊内科': '0'})，server({'心内科': '17', '神经内科': '11', '外科': '11', '呼吸内科': '9', '消化内科': '9', '内分泌科': '9', '妇产科': '5', '肿瘤科': '5', '急诊科': '4', '骨科': '4'})</t>
+          <t>2020-06-01，3.1.5，client({'呼吸内科': '4', '妇产科': '4', '消化内科': '4', '内分泌科': '2', '急诊科': '2', '肿瘤科': '1', '神经内科': '1', '骨科': '0', '急诊内科': '0', '心内科': '0'})，server({'心内科': '17', '神经内科': '11', '外科': '11', '呼吸内科': '9', '消化内科': '9', '内分泌科': '9', '妇产科': '5', '肿瘤科': '5', '急诊科': '4', '骨科': '4'})</t>
         </is>
       </c>
       <c r="H68" s="1" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>2020-05-25，5.1.7，client(None)，server({})</t>
+          <t>2020-06-01，5.1.7，client(None)，server({})</t>
         </is>
       </c>
       <c r="H108" s="1" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>2020-05-25，5.1.8，client(None)，server({})</t>
+          <t>2020-06-01，5.1.8，client(None)，server({})</t>
         </is>
       </c>
       <c r="H109" s="1" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>2020-05-25，5.1.9，client(None)，server({})</t>
+          <t>2020-06-01，5.1.9，client(None)，server({})</t>
         </is>
       </c>
       <c r="H110" s="1" t="inlineStr">
